--- a/scripts/scan_annotations.xlsx
+++ b/scripts/scan_annotations.xlsx
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F488266-7E1D-4F29-BD04-FC8326477681}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
